--- a/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_26.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1250000/Output_9_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1647271.530513404</v>
+        <v>1652063.227977707</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6970360.774383802</v>
+        <v>6970360.774383806</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1116356.600945277</v>
+        <v>1116356.600945281</v>
       </c>
     </row>
     <row r="9">
@@ -661,7 +661,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -676,7 +676,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>199.6091794142932</v>
       </c>
       <c r="I2" t="n">
         <v>151.9313162448613</v>
@@ -706,22 +706,22 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>129.655360308466</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I3" t="n">
-        <v>61.42221998250796</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -794,7 +794,7 @@
         <v>196.8897623984489</v>
       </c>
       <c r="U3" t="n">
-        <v>225.8879277888686</v>
+        <v>225.8879277888683</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>30.60408762095435</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>30.54110646053108</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>288.4186882821372</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>413.784170020795</v>
+        <v>59.49689252050793</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,7 +946,7 @@
         <v>54.4784025748117</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
-        <v>30.54110646053131</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>51.18571673942439</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1138,10 +1138,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>375.7144888697885</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>6.876045741711437</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>109.4422623037129</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -1198,7 +1198,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>30.60408762095435</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1314,7 +1314,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.46389722690833</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1390,7 +1390,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I11" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1423,10 +1423,10 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U11" t="n">
-        <v>174.6402025854827</v>
+        <v>12.29916221878351</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -1542,7 +1542,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>54.79134020099078</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1578,10 +1578,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T13" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>286.2118382056129</v>
@@ -1612,7 +1612,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>216.2175122783646</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1624,7 +1624,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H14" t="n">
-        <v>156.1422350450065</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292595</v>
@@ -1767,7 +1767,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -1779,10 +1779,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H16" t="n">
-        <v>68.5937137318689</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>150.769367046185</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -1864,7 +1864,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1897,7 +1897,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T17" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U17" t="n">
         <v>250.995171958902</v>
@@ -1940,10 +1940,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -2004,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2052,25 +2052,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>189.7690253314419</v>
+        <v>1.822601175588324</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U19" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>194.7000303319012</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2101,7 +2101,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I20" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>109.1877617881769</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T20" t="n">
-        <v>203.9179701396201</v>
+        <v>203.917970139621</v>
       </c>
       <c r="U20" t="n">
         <v>250.995171958902</v>
@@ -2177,10 +2177,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H21" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2207,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2238,25 +2238,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>124.3133361302381</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,13 +2289,13 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>173.6268892744757</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T22" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2304,10 +2304,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -2475,13 +2475,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.4262137773462</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,10 +2523,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>97.27989568773742</v>
       </c>
       <c r="T25" t="n">
         <v>219.5489492761692</v>
@@ -2544,7 +2544,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2569,13 +2569,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H26" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2608,7 +2608,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T26" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U26" t="n">
         <v>250.995171958902</v>
@@ -2651,10 +2651,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2712,25 +2712,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>166.0258082590282</v>
+        <v>90.38583911758688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T28" t="n">
-        <v>138.2178776215696</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2806,13 +2806,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>410.9217256534534</v>
+        <v>410.9217256534538</v>
       </c>
       <c r="H29" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2845,7 +2845,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T29" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U29" t="n">
         <v>250.995171958902</v>
@@ -2888,10 +2888,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2918,7 +2918,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2949,10 +2949,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>163.689844124971</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -2967,7 +2967,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -3000,7 +3000,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>189.7690253314419</v>
+        <v>87.3347086505635</v>
       </c>
       <c r="T31" t="n">
         <v>219.5489492761692</v>
@@ -3015,7 +3015,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3049,7 +3049,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3082,7 +3082,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T32" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U32" t="n">
         <v>250.995171958902</v>
@@ -3125,10 +3125,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3155,7 +3155,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3186,10 +3186,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -3201,7 +3201,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>56.12687015635245</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T34" t="n">
         <v>219.5489492761692</v>
@@ -3252,7 +3252,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
         <v>218.5846533520948</v>
@@ -3286,7 +3286,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3319,7 +3319,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T35" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U35" t="n">
         <v>250.995171958902</v>
@@ -3362,10 +3362,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3426,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>88.68466274181993</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>189.7690253314419</v>
+        <v>173.626889274475</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3523,7 +3523,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T38" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U38" t="n">
         <v>250.995171958902</v>
@@ -3599,10 +3599,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3663,22 +3663,22 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H40" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
         <v>189.7690253314419</v>
@@ -3720,16 +3720,16 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>5.348319023253607</v>
+        <v>219.3323608101321</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -3751,16 +3751,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>17.41534444049578</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G41" t="n">
-        <v>410.9217256534534</v>
+        <v>376.1436860529556</v>
       </c>
       <c r="H41" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>250.995171958902</v>
@@ -3836,10 +3836,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3866,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3909,10 +3909,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4025801238265</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>34.98723076369654</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,13 +3979,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>347.1527103917291</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -3997,7 +3997,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4030,7 +4030,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T44" t="n">
-        <v>203.9179701396201</v>
+        <v>179.7301606094072</v>
       </c>
       <c r="U44" t="n">
         <v>250.995171958902</v>
@@ -4073,10 +4073,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4134,13 +4134,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>114.1627038799786</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
@@ -4149,7 +4149,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>19.67940392335406</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>219.5489492761692</v>
@@ -4197,13 +4197,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1363.553390680693</v>
+        <v>1606.946621408918</v>
       </c>
       <c r="C2" t="n">
-        <v>1363.553390680693</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="D2" t="n">
-        <v>1363.553390680693</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="E2" t="n">
-        <v>1363.553390680693</v>
+        <v>1237.984104468507</v>
       </c>
       <c r="F2" t="n">
-        <v>952.5674858910851</v>
+        <v>826.9981996788993</v>
       </c>
       <c r="G2" t="n">
-        <v>534.603677789272</v>
+        <v>409.0343915770861</v>
       </c>
       <c r="H2" t="n">
         <v>207.4089578252748</v>
@@ -4330,19 +4330,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224077</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4360,22 +4360,22 @@
         <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2465.942913862886</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2212.181128500977</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>1881.118241157406</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>1750.153230744814</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1750.153230744814</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="Y2" t="n">
-        <v>1750.153230744814</v>
+        <v>1993.54646147304</v>
       </c>
     </row>
     <row r="3">
@@ -4385,49 +4385,49 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424006</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673424</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J3" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>713.8062203571349</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
-        <v>1237.953133915166</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N3" t="n">
-        <v>1791.679670014717</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O3" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P3" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q3" t="n">
         <v>2697.149091018222</v>
@@ -4445,7 +4445,7 @@
         <v>2061.714576167582</v>
       </c>
       <c r="V3" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W3" t="n">
         <v>1572.325111207638</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C4" t="n">
-        <v>667.8624625746712</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D4" t="n">
-        <v>517.7458231623355</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E4" t="n">
-        <v>369.8327295799424</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F4" t="n">
-        <v>222.942782082032</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4494,46 +4494,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L4" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M4" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N4" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O4" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P4" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600561</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R4" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S4" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T4" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U4" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V4" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W4" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X4" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y4" t="n">
-        <v>667.8624625746712</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="5">
@@ -4543,25 +4543,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1139.146815977588</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="C5" t="n">
-        <v>770.1842990371763</v>
+        <v>1018.506281012309</v>
       </c>
       <c r="D5" t="n">
-        <v>478.8522906713811</v>
+        <v>660.2405824055588</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>274.4523298073146</v>
       </c>
       <c r="F5" t="n">
-        <v>471.9067899221776</v>
+        <v>267.5068290581111</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H5" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
         <v>53.94298182036445</v>
@@ -4570,10 +4570,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K5" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4594,25 +4594,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="U5" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="V5" t="n">
-        <v>2642.120401548716</v>
+        <v>2134.880026519315</v>
       </c>
       <c r="W5" t="n">
-        <v>2289.351746278601</v>
+        <v>1782.111371249201</v>
       </c>
       <c r="X5" t="n">
-        <v>1915.885988017521</v>
+        <v>1408.645612988121</v>
       </c>
       <c r="Y5" t="n">
-        <v>1525.74665604171</v>
+        <v>1018.506281012309</v>
       </c>
     </row>
     <row r="6">
@@ -4622,46 +4622,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C6" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D6" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E6" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F6" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G6" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H6" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I6" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4685,10 +4685,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W6" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X6" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y6" t="n">
         <v>1156.713312237151</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="C7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="D7" t="n">
-        <v>517.7458231623355</v>
+        <v>348.7460229006679</v>
       </c>
       <c r="E7" t="n">
-        <v>369.8327295799424</v>
+        <v>200.8329293182748</v>
       </c>
       <c r="F7" t="n">
-        <v>222.942782082032</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4749,28 +4749,28 @@
         <v>698.7120650600564</v>
       </c>
       <c r="R7" t="n">
-        <v>667.8624625746712</v>
+        <v>550.5654064942404</v>
       </c>
       <c r="S7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="T7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="U7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="V7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="W7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="X7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
       <c r="Y7" t="n">
-        <v>667.8624625746712</v>
+        <v>498.8626623130036</v>
       </c>
     </row>
     <row r="8">
@@ -4780,37 +4780,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1181.549686895097</v>
+        <v>554.3221432721089</v>
       </c>
       <c r="C8" t="n">
-        <v>812.5871699546856</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="D8" t="n">
-        <v>454.3214713479351</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="E8" t="n">
-        <v>74.81188663097703</v>
+        <v>185.3596263316971</v>
       </c>
       <c r="F8" t="n">
-        <v>67.86638588177355</v>
+        <v>178.4141255824937</v>
       </c>
       <c r="G8" t="n">
-        <v>53.94298182036445</v>
+        <v>164.4907215210846</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>164.4907215210846</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533138</v>
       </c>
       <c r="K8" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733123</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224072</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4837,19 +4837,19 @@
         <v>2642.120401548716</v>
       </c>
       <c r="U8" t="n">
-        <v>2642.120401548716</v>
+        <v>2388.358616186807</v>
       </c>
       <c r="V8" t="n">
-        <v>2311.057514205145</v>
+        <v>2057.295728843236</v>
       </c>
       <c r="W8" t="n">
-        <v>1958.288858935031</v>
+        <v>1704.527073573122</v>
       </c>
       <c r="X8" t="n">
-        <v>1958.288858935031</v>
+        <v>1331.061315312042</v>
       </c>
       <c r="Y8" t="n">
-        <v>1568.149526959219</v>
+        <v>940.9219833362306</v>
       </c>
     </row>
     <row r="9">
@@ -4859,19 +4859,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747041</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692486</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424003</v>
@@ -4922,10 +4922,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X9" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y9" t="n">
         <v>1156.713312237151</v>
@@ -4938,28 +4938,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="C10" t="n">
-        <v>713.5189870075369</v>
+        <v>529.7758821321495</v>
       </c>
       <c r="D10" t="n">
-        <v>563.4023475952011</v>
+        <v>379.6592427198137</v>
       </c>
       <c r="E10" t="n">
-        <v>415.489254012808</v>
+        <v>231.7461491374206</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>84.85620163951026</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4968,46 +4968,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="R10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="S10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="T10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="U10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="V10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="W10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="X10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
       <c r="Y10" t="n">
-        <v>713.5189870075369</v>
+        <v>698.7120650600564</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2366.187894490604</v>
+        <v>2324.190995730073</v>
       </c>
       <c r="C11" t="n">
-        <v>1997.225377550193</v>
+        <v>1955.228478789661</v>
       </c>
       <c r="D11" t="n">
-        <v>1638.959678943442</v>
+        <v>1596.962780182911</v>
       </c>
       <c r="E11" t="n">
-        <v>1253.171426345198</v>
+        <v>1211.174527584667</v>
       </c>
       <c r="F11" t="n">
-        <v>842.1855215555904</v>
+        <v>800.188622795059</v>
       </c>
       <c r="G11" t="n">
-        <v>427.1130714005869</v>
+        <v>385.1161726400555</v>
       </c>
       <c r="H11" t="n">
-        <v>129.5294710093542</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="I11" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J11" t="n">
-        <v>276.4117032078483</v>
+        <v>443.8173522282012</v>
       </c>
       <c r="K11" t="n">
-        <v>931.1350353431478</v>
+        <v>1046.401594395697</v>
       </c>
       <c r="L11" t="n">
-        <v>1382.169248591557</v>
+        <v>1497.435807644106</v>
       </c>
       <c r="M11" t="n">
-        <v>1915.701153263481</v>
+        <v>2030.967712316031</v>
       </c>
       <c r="N11" t="n">
-        <v>2462.479970322263</v>
+        <v>2577.746529374813</v>
       </c>
       <c r="O11" t="n">
-        <v>3145.778255928408</v>
+        <v>3080.71900025415</v>
       </c>
       <c r="P11" t="n">
-        <v>3859.133343375353</v>
+        <v>3794.074087701096</v>
       </c>
       <c r="Q11" t="n">
-        <v>4317.611545884341</v>
+        <v>4252.552290210084</v>
       </c>
       <c r="R11" t="n">
-        <v>4376.628612441144</v>
+        <v>4376.628612441139</v>
       </c>
       <c r="S11" t="n">
-        <v>4376.628612441144</v>
+        <v>4376.628612441139</v>
       </c>
       <c r="T11" t="n">
-        <v>4376.628612441144</v>
+        <v>4170.650864825361</v>
       </c>
       <c r="U11" t="n">
-        <v>4200.224367405302</v>
+        <v>4158.227468644772</v>
       </c>
       <c r="V11" t="n">
-        <v>3869.161480061732</v>
+        <v>3827.164581301201</v>
       </c>
       <c r="W11" t="n">
-        <v>3516.392824791618</v>
+        <v>3474.395926031087</v>
       </c>
       <c r="X11" t="n">
-        <v>3142.927066530538</v>
+        <v>3100.930167770007</v>
       </c>
       <c r="Y11" t="n">
-        <v>2752.787734554726</v>
+        <v>2710.790835794195</v>
       </c>
     </row>
     <row r="12">
@@ -5096,40 +5096,40 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>962.5643102977479</v>
+        <v>962.564310297748</v>
       </c>
       <c r="C12" t="n">
-        <v>788.1112810166209</v>
+        <v>788.111281016621</v>
       </c>
       <c r="D12" t="n">
         <v>639.1768713553697</v>
       </c>
       <c r="E12" t="n">
-        <v>479.9394163499142</v>
+        <v>479.9394163499143</v>
       </c>
       <c r="F12" t="n">
         <v>333.4048583767992</v>
       </c>
       <c r="G12" t="n">
-        <v>197.0417582094176</v>
+        <v>197.0417582094173</v>
       </c>
       <c r="H12" t="n">
-        <v>106.5398638472852</v>
+        <v>106.5398638472848</v>
       </c>
       <c r="I12" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J12" t="n">
-        <v>181.2098417394402</v>
+        <v>181.2098417394401</v>
       </c>
       <c r="K12" t="n">
-        <v>419.4740407197874</v>
+        <v>419.4740407197872</v>
       </c>
       <c r="L12" t="n">
-        <v>786.1722010324524</v>
+        <v>786.1722010324527</v>
       </c>
       <c r="M12" t="n">
-        <v>1233.448526254768</v>
+        <v>1233.448526254769</v>
       </c>
       <c r="N12" t="n">
         <v>1706.971569809223</v>
@@ -5175,34 +5175,34 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>87.53257224882287</v>
+        <v>292.9939997429674</v>
       </c>
       <c r="C13" t="n">
-        <v>87.53257224882287</v>
+        <v>292.9939997429674</v>
       </c>
       <c r="D13" t="n">
-        <v>87.53257224882287</v>
+        <v>142.8773603306317</v>
       </c>
       <c r="E13" t="n">
-        <v>87.53257224882287</v>
+        <v>142.8773603306317</v>
       </c>
       <c r="F13" t="n">
-        <v>87.53257224882287</v>
+        <v>142.8773603306317</v>
       </c>
       <c r="G13" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="H13" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="I13" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J13" t="n">
         <v>132.6552046957584</v>
       </c>
       <c r="K13" t="n">
-        <v>336.6423876446348</v>
+        <v>336.6423876446347</v>
       </c>
       <c r="L13" t="n">
         <v>653.2021860931309</v>
@@ -5226,25 +5226,25 @@
         <v>1948.315003905132</v>
       </c>
       <c r="S13" t="n">
-        <v>1772.934307668288</v>
+        <v>1756.629119731959</v>
       </c>
       <c r="T13" t="n">
-        <v>1551.167692237814</v>
+        <v>1756.629119731959</v>
       </c>
       <c r="U13" t="n">
-        <v>1262.064825363458</v>
+        <v>1467.526252857602</v>
       </c>
       <c r="V13" t="n">
-        <v>1007.380337157571</v>
+        <v>1212.841764651715</v>
       </c>
       <c r="W13" t="n">
-        <v>717.96316712061</v>
+        <v>923.4245946147546</v>
       </c>
       <c r="X13" t="n">
-        <v>489.9736162225927</v>
+        <v>695.4350437167373</v>
       </c>
       <c r="Y13" t="n">
-        <v>269.1810370790625</v>
+        <v>474.6424645732071</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2226.323723437762</v>
+        <v>2226.323723437758</v>
       </c>
       <c r="C14" t="n">
-        <v>1857.36120649735</v>
+        <v>1857.361206497346</v>
       </c>
       <c r="D14" t="n">
-        <v>1499.0955078906</v>
+        <v>1638.959678943442</v>
       </c>
       <c r="E14" t="n">
-        <v>1113.307255292356</v>
+        <v>1253.171426345198</v>
       </c>
       <c r="F14" t="n">
-        <v>702.3213505027481</v>
+        <v>842.1855215555904</v>
       </c>
       <c r="G14" t="n">
-        <v>287.2489003477446</v>
+        <v>427.1130714005868</v>
       </c>
       <c r="H14" t="n">
-        <v>129.5294710093542</v>
+        <v>129.529471009354</v>
       </c>
       <c r="I14" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J14" t="n">
-        <v>443.8173522282013</v>
+        <v>443.8173522282012</v>
       </c>
       <c r="K14" t="n">
-        <v>777.6367259180479</v>
+        <v>1046.401594395697</v>
       </c>
       <c r="L14" t="n">
-        <v>1228.670939166457</v>
+        <v>1497.435807644106</v>
       </c>
       <c r="M14" t="n">
-        <v>2207.221241996285</v>
+        <v>2030.967712316031</v>
       </c>
       <c r="N14" t="n">
-        <v>2754.000059055068</v>
+        <v>2577.746529374813</v>
       </c>
       <c r="O14" t="n">
-        <v>3256.972529934405</v>
+        <v>3080.71900025415</v>
       </c>
       <c r="P14" t="n">
-        <v>3859.133343375353</v>
+        <v>3794.074087701096</v>
       </c>
       <c r="Q14" t="n">
-        <v>4317.611545884341</v>
+        <v>4252.552290210084</v>
       </c>
       <c r="R14" t="n">
-        <v>4376.628612441144</v>
+        <v>4376.628612441139</v>
       </c>
       <c r="S14" t="n">
-        <v>4266.337943968239</v>
+        <v>4266.337943968234</v>
       </c>
       <c r="T14" t="n">
-        <v>4060.360196352461</v>
+        <v>4060.360196352456</v>
       </c>
       <c r="U14" t="n">
-        <v>4060.360196352461</v>
+        <v>4060.360196352456</v>
       </c>
       <c r="V14" t="n">
-        <v>3729.29730900889</v>
+        <v>3729.297309008885</v>
       </c>
       <c r="W14" t="n">
-        <v>3376.528653738776</v>
+        <v>3376.528653738771</v>
       </c>
       <c r="X14" t="n">
-        <v>3003.062895477696</v>
+        <v>3003.062895477691</v>
       </c>
       <c r="Y14" t="n">
-        <v>2612.923563501884</v>
+        <v>2612.923563501879</v>
       </c>
     </row>
     <row r="15">
@@ -5333,37 +5333,37 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>962.5643102977482</v>
+        <v>962.5643102977474</v>
       </c>
       <c r="C15" t="n">
-        <v>788.1112810166212</v>
+        <v>788.1112810166204</v>
       </c>
       <c r="D15" t="n">
-        <v>639.1768713553699</v>
+        <v>639.1768713553693</v>
       </c>
       <c r="E15" t="n">
-        <v>479.9394163499144</v>
+        <v>479.9394163499137</v>
       </c>
       <c r="F15" t="n">
-        <v>333.4048583767993</v>
+        <v>333.4048583767988</v>
       </c>
       <c r="G15" t="n">
-        <v>197.0417582094174</v>
+        <v>197.0417582094173</v>
       </c>
       <c r="H15" t="n">
-        <v>106.5398638472849</v>
+        <v>106.5398638472848</v>
       </c>
       <c r="I15" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J15" t="n">
-        <v>181.2098417394402</v>
+        <v>181.20984173944</v>
       </c>
       <c r="K15" t="n">
-        <v>419.4740407197874</v>
+        <v>419.4740407197869</v>
       </c>
       <c r="L15" t="n">
-        <v>786.1722010324527</v>
+        <v>786.1722010324524</v>
       </c>
       <c r="M15" t="n">
         <v>1233.448526254769</v>
@@ -5378,16 +5378,16 @@
         <v>2428.432440703381</v>
       </c>
       <c r="Q15" t="n">
-        <v>2586.073998349981</v>
+        <v>2586.07399834998</v>
       </c>
       <c r="R15" t="n">
         <v>2585.929644942496</v>
       </c>
       <c r="S15" t="n">
-        <v>2456.491758435976</v>
+        <v>2456.491758435975</v>
       </c>
       <c r="T15" t="n">
-        <v>2263.848758113832</v>
+        <v>2263.848758113831</v>
       </c>
       <c r="U15" t="n">
         <v>2035.780911248247</v>
@@ -5396,13 +5396,13 @@
         <v>1800.628803016504</v>
       </c>
       <c r="W15" t="n">
-        <v>1546.391446288303</v>
+        <v>1546.391446288302</v>
       </c>
       <c r="X15" t="n">
-        <v>1338.53994608277</v>
+        <v>1338.539946082769</v>
       </c>
       <c r="Y15" t="n">
-        <v>1130.779647317816</v>
+        <v>1130.779647317815</v>
       </c>
     </row>
     <row r="16">
@@ -5412,34 +5412,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>473.6684282862632</v>
+        <v>549.3656892386391</v>
       </c>
       <c r="C16" t="n">
-        <v>304.7322453583563</v>
+        <v>549.3656892386391</v>
       </c>
       <c r="D16" t="n">
-        <v>304.7322453583563</v>
+        <v>549.3656892386391</v>
       </c>
       <c r="E16" t="n">
-        <v>156.8191517759632</v>
+        <v>401.452595656246</v>
       </c>
       <c r="F16" t="n">
-        <v>156.8191517759632</v>
+        <v>401.452595656246</v>
       </c>
       <c r="G16" t="n">
-        <v>156.8191517759632</v>
+        <v>233.749759030965</v>
       </c>
       <c r="H16" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="I16" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J16" t="n">
         <v>132.6552046957584</v>
       </c>
       <c r="K16" t="n">
-        <v>336.6423876446348</v>
+        <v>336.6423876446347</v>
       </c>
       <c r="L16" t="n">
         <v>653.2021860931309</v>
@@ -5478,10 +5478,10 @@
         <v>701.6579791842805</v>
       </c>
       <c r="X16" t="n">
-        <v>473.6684282862632</v>
+        <v>549.3656892386391</v>
       </c>
       <c r="Y16" t="n">
-        <v>473.6684282862632</v>
+        <v>549.3656892386391</v>
       </c>
     </row>
     <row r="17">
@@ -5491,46 +5491,46 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C17" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D17" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E17" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F17" t="n">
-        <v>850.2139837551626</v>
+        <v>850.213983755162</v>
       </c>
       <c r="G17" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001586</v>
       </c>
       <c r="H17" t="n">
-        <v>137.5579332089264</v>
+        <v>137.5579332089258</v>
       </c>
       <c r="I17" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J17" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K17" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L17" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M17" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N17" t="n">
-        <v>2637.914081542188</v>
+        <v>2920.758180993045</v>
       </c>
       <c r="O17" t="n">
-        <v>3482.142110232732</v>
+        <v>3800.7228313225</v>
       </c>
       <c r="P17" t="n">
         <v>4195.497197679678</v>
@@ -5548,19 +5548,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U17" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V17" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W17" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X17" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y17" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="18">
@@ -5570,43 +5570,43 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>970.5927724973203</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C18" t="n">
-        <v>796.1397432161933</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D18" t="n">
-        <v>647.2053335549422</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E18" t="n">
-        <v>487.9678785494866</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F18" t="n">
-        <v>341.4333205763717</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G18" t="n">
-        <v>205.0702204089899</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H18" t="n">
-        <v>114.5683260468568</v>
+        <v>114.5683260468565</v>
       </c>
       <c r="I18" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J18" t="n">
-        <v>189.238303939012</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K18" t="n">
-        <v>427.5025029193594</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L18" t="n">
-        <v>794.2006632320249</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M18" t="n">
-        <v>1241.476988454341</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N18" t="n">
-        <v>1715.000032008796</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O18" t="n">
         <v>2125.96131142685</v>
@@ -5615,7 +5615,7 @@
         <v>2436.460902902953</v>
       </c>
       <c r="Q18" t="n">
-        <v>2594.102460549553</v>
+        <v>2594.102460549552</v>
       </c>
       <c r="R18" t="n">
         <v>2593.958107142068</v>
@@ -5624,16 +5624,16 @@
         <v>2464.520220635548</v>
       </c>
       <c r="T18" t="n">
-        <v>2271.877220313404</v>
+        <v>2271.877220313403</v>
       </c>
       <c r="U18" t="n">
-        <v>2043.80937344782</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V18" t="n">
-        <v>1808.657265216077</v>
+        <v>1808.657265216076</v>
       </c>
       <c r="W18" t="n">
-        <v>1554.419908487875</v>
+        <v>1554.419908487874</v>
       </c>
       <c r="X18" t="n">
         <v>1346.568408282342</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>876.4469737784534</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="C19" t="n">
-        <v>707.5107908505465</v>
+        <v>489.8932985402952</v>
       </c>
       <c r="D19" t="n">
-        <v>557.3941514382108</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="E19" t="n">
-        <v>409.4810578558177</v>
+        <v>339.7766591279594</v>
       </c>
       <c r="F19" t="n">
-        <v>409.4810578558177</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="G19" t="n">
-        <v>241.7782212305366</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="H19" t="n">
-        <v>95.56103444839442</v>
+        <v>192.8867116300491</v>
       </c>
       <c r="I19" t="n">
         <v>95.56103444839442</v>
@@ -5676,7 +5676,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K19" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L19" t="n">
         <v>661.2306482927024</v>
@@ -5688,37 +5688,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O19" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P19" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R19" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S19" t="n">
-        <v>1764.65758193153</v>
+        <v>1954.50245481623</v>
       </c>
       <c r="T19" t="n">
-        <v>1764.65758193153</v>
+        <v>1732.735839385756</v>
       </c>
       <c r="U19" t="n">
-        <v>1475.554715057174</v>
+        <v>1443.6329725114</v>
       </c>
       <c r="V19" t="n">
-        <v>1475.554715057174</v>
+        <v>1188.948484305513</v>
       </c>
       <c r="W19" t="n">
-        <v>1278.888017752223</v>
+        <v>899.5313142685523</v>
       </c>
       <c r="X19" t="n">
-        <v>1278.888017752223</v>
+        <v>671.5417633705349</v>
       </c>
       <c r="Y19" t="n">
-        <v>1058.095438608693</v>
+        <v>671.5417633705349</v>
       </c>
     </row>
     <row r="20">
@@ -5752,34 +5752,34 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J20" t="n">
-        <v>451.8458144277729</v>
+        <v>444.6760255082879</v>
       </c>
       <c r="K20" t="n">
-        <v>785.6651881176194</v>
+        <v>1099.399357643587</v>
       </c>
       <c r="L20" t="n">
-        <v>1236.699401366028</v>
+        <v>1963.918173296942</v>
       </c>
       <c r="M20" t="n">
-        <v>2215.249704195857</v>
+        <v>2497.450077968866</v>
       </c>
       <c r="N20" t="n">
-        <v>3195.001976422504</v>
+        <v>3044.228895027648</v>
       </c>
       <c r="O20" t="n">
-        <v>3697.97444730184</v>
+        <v>3547.201365906985</v>
       </c>
       <c r="P20" t="n">
-        <v>4195.497197679678</v>
+        <v>4260.556453353931</v>
       </c>
       <c r="Q20" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R20" t="n">
         <v>4778.051722419721</v>
       </c>
       <c r="S20" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T20" t="n">
         <v>4461.783306331037</v>
@@ -5822,7 +5822,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G21" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H21" t="n">
         <v>114.5683260468565</v>
@@ -5831,19 +5831,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J21" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K21" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L21" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M21" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N21" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O21" t="n">
         <v>2125.96131142685</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>95.56103444839442</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="C22" t="n">
-        <v>95.56103444839442</v>
+        <v>829.8531253303011</v>
       </c>
       <c r="D22" t="n">
-        <v>95.56103444839442</v>
+        <v>704.2840989361212</v>
       </c>
       <c r="E22" t="n">
-        <v>95.56103444839442</v>
+        <v>556.371005353728</v>
       </c>
       <c r="F22" t="n">
-        <v>95.56103444839442</v>
+        <v>409.4810578558177</v>
       </c>
       <c r="G22" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H22" t="n">
         <v>95.56103444839442</v>
@@ -5913,7 +5913,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K22" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L22" t="n">
         <v>661.2306482927024</v>
@@ -5925,37 +5925,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O22" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P22" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R22" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S22" t="n">
-        <v>1780.96276986786</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T22" t="n">
-        <v>1559.196154437386</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U22" t="n">
-        <v>1270.093287563029</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V22" t="n">
-        <v>1015.408799357142</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W22" t="n">
-        <v>725.9916293201816</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="X22" t="n">
-        <v>498.0020784221642</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="Y22" t="n">
-        <v>277.2094992786341</v>
+        <v>998.7893082582079</v>
       </c>
     </row>
     <row r="23">
@@ -5968,19 +5968,19 @@
         <v>2374.216356690175</v>
       </c>
       <c r="C23" t="n">
-        <v>2005.253839749763</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D23" t="n">
-        <v>1646.988141143013</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E23" t="n">
-        <v>1261.199888544769</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F23" t="n">
-        <v>850.2139837551613</v>
+        <v>850.2139837551625</v>
       </c>
       <c r="G23" t="n">
-        <v>435.1415336001587</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H23" t="n">
         <v>137.5579332089257</v>
@@ -5989,19 +5989,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J23" t="n">
-        <v>451.8458144277728</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K23" t="n">
-        <v>1106.569146563072</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L23" t="n">
-        <v>1557.603359811481</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M23" t="n">
-        <v>2091.135264483405</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N23" t="n">
-        <v>2637.914081542187</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O23" t="n">
         <v>3482.142110232732</v>
@@ -6016,25 +6016,25 @@
         <v>4778.051722419721</v>
       </c>
       <c r="S23" t="n">
-        <v>4667.761053946815</v>
+        <v>4667.761053946816</v>
       </c>
       <c r="T23" t="n">
-        <v>4461.783306331037</v>
+        <v>4461.783306331038</v>
       </c>
       <c r="U23" t="n">
-        <v>4208.252829604873</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V23" t="n">
-        <v>3877.189942261302</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W23" t="n">
-        <v>3524.421286991188</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X23" t="n">
-        <v>3150.955528730108</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y23" t="n">
-        <v>2760.816196754296</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="24">
@@ -6044,22 +6044,22 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C24" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D24" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E24" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F24" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G24" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H24" t="n">
         <v>114.5683260468565</v>
@@ -6068,40 +6068,40 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J24" t="n">
-        <v>189.2383039390113</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K24" t="n">
-        <v>427.5025029193582</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L24" t="n">
-        <v>794.2006632320235</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M24" t="n">
-        <v>1241.476988454339</v>
+        <v>1241.47698845434</v>
       </c>
       <c r="N24" t="n">
         <v>1715.000032008794</v>
       </c>
       <c r="O24" t="n">
-        <v>2125.961311426849</v>
+        <v>2125.96131142685</v>
       </c>
       <c r="P24" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q24" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R24" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S24" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T24" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U24" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V24" t="n">
         <v>1808.657265216076</v>
@@ -6110,10 +6110,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X24" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y24" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>560.8310435707792</v>
+        <v>264.4972173763014</v>
       </c>
       <c r="C25" t="n">
-        <v>391.8948606428723</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G25" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H25" t="n">
         <v>95.56103444839442</v>
@@ -6171,28 +6171,28 @@
         <v>1956.343466104703</v>
       </c>
       <c r="R25" t="n">
-        <v>1956.343466104703</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S25" t="n">
-        <v>1956.343466104703</v>
+        <v>1768.250487965527</v>
       </c>
       <c r="T25" t="n">
-        <v>1734.576850674229</v>
+        <v>1546.483872535053</v>
       </c>
       <c r="U25" t="n">
-        <v>1445.473983799873</v>
+        <v>1257.381005660696</v>
       </c>
       <c r="V25" t="n">
-        <v>1190.789495593986</v>
+        <v>1002.69651745481</v>
       </c>
       <c r="W25" t="n">
-        <v>901.3723255570251</v>
+        <v>713.2793474178488</v>
       </c>
       <c r="X25" t="n">
-        <v>673.3827746590077</v>
+        <v>485.2897965198315</v>
       </c>
       <c r="Y25" t="n">
-        <v>673.3827746590077</v>
+        <v>264.4972173763014</v>
       </c>
     </row>
     <row r="26">
@@ -6208,46 +6208,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D26" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E26" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F26" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G26" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H26" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I26" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J26" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K26" t="n">
-        <v>888.4135721382786</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.447785386687</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M26" t="n">
-        <v>2317.998088216516</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N26" t="n">
-        <v>3297.750360443163</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O26" t="n">
-        <v>3800.7228313225</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P26" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q26" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R26" t="n">
         <v>4778.051722419721</v>
@@ -6281,22 +6281,22 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C27" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D27" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E27" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F27" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G27" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H27" t="n">
         <v>114.5683260468565</v>
@@ -6305,13 +6305,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J27" t="n">
-        <v>189.2383039390115</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K27" t="n">
-        <v>427.5025029193587</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L27" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M27" t="n">
         <v>1241.47698845434</v>
@@ -6323,22 +6323,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P27" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q27" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R27" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S27" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T27" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U27" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V27" t="n">
         <v>1808.657265216076</v>
@@ -6347,10 +6347,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X27" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y27" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="28">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>263.2638710736754</v>
+        <v>777.9967291146778</v>
       </c>
       <c r="C28" t="n">
-        <v>263.2638710736754</v>
+        <v>777.9967291146778</v>
       </c>
       <c r="D28" t="n">
-        <v>263.2638710736754</v>
+        <v>627.880089702342</v>
       </c>
       <c r="E28" t="n">
-        <v>263.2638710736754</v>
+        <v>479.9669961199489</v>
       </c>
       <c r="F28" t="n">
-        <v>263.2638710736754</v>
+        <v>333.0770486220385</v>
       </c>
       <c r="G28" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H28" t="n">
         <v>95.56103444839442</v>
@@ -6387,7 +6387,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K28" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L28" t="n">
         <v>661.2306482927024</v>
@@ -6399,37 +6399,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O28" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P28" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q28" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R28" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S28" t="n">
-        <v>1866.513008862232</v>
+        <v>1764.657581931529</v>
       </c>
       <c r="T28" t="n">
-        <v>1726.898991062666</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="U28" t="n">
-        <v>1437.79612418831</v>
+        <v>1542.890966501056</v>
       </c>
       <c r="V28" t="n">
-        <v>1183.111635982423</v>
+        <v>1288.206478295169</v>
       </c>
       <c r="W28" t="n">
-        <v>893.6944659454626</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="X28" t="n">
-        <v>665.7049150474453</v>
+        <v>998.7893082582079</v>
       </c>
       <c r="Y28" t="n">
-        <v>444.9123359039152</v>
+        <v>777.9967291146778</v>
       </c>
     </row>
     <row r="29">
@@ -6445,46 +6445,46 @@
         <v>2005.253839749765</v>
       </c>
       <c r="D29" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E29" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F29" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551624</v>
       </c>
       <c r="G29" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H29" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089257</v>
       </c>
       <c r="I29" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J29" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K29" t="n">
-        <v>1106.569146563073</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L29" t="n">
         <v>1557.603359811481</v>
       </c>
       <c r="M29" t="n">
-        <v>2091.135264483406</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N29" t="n">
-        <v>2637.914081542188</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O29" t="n">
-        <v>3482.142110232732</v>
+        <v>3517.878731871642</v>
       </c>
       <c r="P29" t="n">
-        <v>4195.497197679678</v>
+        <v>4231.233819318588</v>
       </c>
       <c r="Q29" t="n">
-        <v>4653.975400188666</v>
+        <v>4689.712021827576</v>
       </c>
       <c r="R29" t="n">
         <v>4778.051722419721</v>
@@ -6533,7 +6533,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G30" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H30" t="n">
         <v>114.5683260468565</v>
@@ -6542,19 +6542,19 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J30" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K30" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L30" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M30" t="n">
         <v>1241.47698845434</v>
       </c>
       <c r="N30" t="n">
-        <v>1715.000032008795</v>
+        <v>1715.000032008794</v>
       </c>
       <c r="O30" t="n">
         <v>2125.96131142685</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>95.56103444839442</v>
+        <v>410.7144041584436</v>
       </c>
       <c r="C31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="D31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="E31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="F31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="G31" t="n">
-        <v>95.56103444839442</v>
+        <v>241.7782212305366</v>
       </c>
       <c r="H31" t="n">
         <v>95.56103444839442</v>
@@ -6624,7 +6624,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K31" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L31" t="n">
         <v>661.2306482927024</v>
@@ -6636,37 +6636,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O31" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P31" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R31" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S31" t="n">
-        <v>1764.65758193153</v>
+        <v>1868.126588679891</v>
       </c>
       <c r="T31" t="n">
-        <v>1542.890966501056</v>
+        <v>1646.359973249418</v>
       </c>
       <c r="U31" t="n">
-        <v>1253.788099626699</v>
+        <v>1357.257106375061</v>
       </c>
       <c r="V31" t="n">
-        <v>999.1036114208126</v>
+        <v>1102.572618169174</v>
       </c>
       <c r="W31" t="n">
-        <v>709.6864413838521</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="X31" t="n">
-        <v>481.6968904858347</v>
+        <v>813.1554481322135</v>
       </c>
       <c r="Y31" t="n">
-        <v>260.9043113423046</v>
+        <v>592.3628689886833</v>
       </c>
     </row>
     <row r="32">
@@ -6676,52 +6676,52 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C32" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D32" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E32" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F32" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G32" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H32" t="n">
-        <v>137.5579332089257</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I32" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J32" t="n">
-        <v>451.8458144277729</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K32" t="n">
-        <v>785.6651881176194</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L32" t="n">
-        <v>1236.699401366028</v>
+        <v>1971.087962216427</v>
       </c>
       <c r="M32" t="n">
-        <v>2055.398642844495</v>
+        <v>2949.638265046255</v>
       </c>
       <c r="N32" t="n">
-        <v>2602.177459903277</v>
+        <v>3496.417082105037</v>
       </c>
       <c r="O32" t="n">
-        <v>3482.142110232732</v>
+        <v>4075.973927750059</v>
       </c>
       <c r="P32" t="n">
-        <v>4195.497197679678</v>
+        <v>4470.748294107237</v>
       </c>
       <c r="Q32" t="n">
-        <v>4653.975400188666</v>
+        <v>4719.034655862919</v>
       </c>
       <c r="R32" t="n">
         <v>4778.051722419721</v>
@@ -6733,19 +6733,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U32" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V32" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W32" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X32" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y32" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="33">
@@ -6755,22 +6755,22 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>970.5927724973189</v>
+        <v>970.5927724973197</v>
       </c>
       <c r="C33" t="n">
-        <v>796.139743216192</v>
+        <v>796.1397432161928</v>
       </c>
       <c r="D33" t="n">
-        <v>647.2053335549408</v>
+        <v>647.2053335549415</v>
       </c>
       <c r="E33" t="n">
-        <v>487.9678785494852</v>
+        <v>487.9678785494859</v>
       </c>
       <c r="F33" t="n">
-        <v>341.4333205763703</v>
+        <v>341.4333205763709</v>
       </c>
       <c r="G33" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H33" t="n">
         <v>114.5683260468565</v>
@@ -6779,13 +6779,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J33" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K33" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L33" t="n">
-        <v>794.2006632320243</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M33" t="n">
         <v>1241.47698845434</v>
@@ -6797,22 +6797,22 @@
         <v>2125.96131142685</v>
       </c>
       <c r="P33" t="n">
-        <v>2436.460902902952</v>
+        <v>2436.460902902953</v>
       </c>
       <c r="Q33" t="n">
         <v>2594.102460549552</v>
       </c>
       <c r="R33" t="n">
-        <v>2593.958107142067</v>
+        <v>2593.958107142068</v>
       </c>
       <c r="S33" t="n">
-        <v>2464.520220635547</v>
+        <v>2464.520220635548</v>
       </c>
       <c r="T33" t="n">
         <v>2271.877220313403</v>
       </c>
       <c r="U33" t="n">
-        <v>2043.809373447818</v>
+        <v>2043.809373447819</v>
       </c>
       <c r="V33" t="n">
         <v>1808.657265216076</v>
@@ -6821,10 +6821,10 @@
         <v>1554.419908487874</v>
       </c>
       <c r="X33" t="n">
-        <v>1346.568408282341</v>
+        <v>1346.568408282342</v>
       </c>
       <c r="Y33" t="n">
-        <v>1138.808109517387</v>
+        <v>1138.808109517388</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>432.2000540015823</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F34" t="n">
-        <v>263.2638710736754</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G34" t="n">
         <v>95.56103444839442</v>
@@ -6861,7 +6861,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K34" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L34" t="n">
         <v>661.2306482927024</v>
@@ -6873,37 +6873,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O34" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P34" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q34" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R34" t="n">
-        <v>1899.649657865964</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S34" t="n">
-        <v>1707.96377369279</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T34" t="n">
-        <v>1486.197158262316</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U34" t="n">
-        <v>1197.09429138796</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V34" t="n">
-        <v>942.4098031820731</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W34" t="n">
-        <v>652.9926331451124</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X34" t="n">
-        <v>652.9926331451124</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y34" t="n">
-        <v>432.2000540015823</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="35">
@@ -6913,52 +6913,52 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2374.216356690176</v>
+        <v>2374.216356690175</v>
       </c>
       <c r="C35" t="n">
-        <v>2005.253839749765</v>
+        <v>2005.253839749764</v>
       </c>
       <c r="D35" t="n">
-        <v>1646.988141143015</v>
+        <v>1646.988141143014</v>
       </c>
       <c r="E35" t="n">
-        <v>1261.199888544771</v>
+        <v>1261.19988854477</v>
       </c>
       <c r="F35" t="n">
-        <v>850.2139837551626</v>
+        <v>850.2139837551618</v>
       </c>
       <c r="G35" t="n">
-        <v>435.1415336001592</v>
+        <v>435.1415336001585</v>
       </c>
       <c r="H35" t="n">
-        <v>137.5579332089261</v>
+        <v>137.5579332089256</v>
       </c>
       <c r="I35" t="n">
         <v>95.56103444839442</v>
       </c>
       <c r="J35" t="n">
-        <v>284.4401654074198</v>
+        <v>416.1091927888629</v>
       </c>
       <c r="K35" t="n">
-        <v>618.2595390972663</v>
+        <v>1070.832524924162</v>
       </c>
       <c r="L35" t="n">
-        <v>1237.706702364128</v>
+        <v>1521.866738172571</v>
       </c>
       <c r="M35" t="n">
-        <v>2216.257005193957</v>
+        <v>2055.398642844495</v>
       </c>
       <c r="N35" t="n">
-        <v>3196.009277420604</v>
+        <v>2602.177459903277</v>
       </c>
       <c r="O35" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P35" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q35" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R35" t="n">
         <v>4778.051722419721</v>
@@ -6970,19 +6970,19 @@
         <v>4461.783306331038</v>
       </c>
       <c r="U35" t="n">
-        <v>4208.252829604875</v>
+        <v>4208.252829604874</v>
       </c>
       <c r="V35" t="n">
-        <v>3877.189942261304</v>
+        <v>3877.189942261303</v>
       </c>
       <c r="W35" t="n">
-        <v>3524.42128699119</v>
+        <v>3524.421286991189</v>
       </c>
       <c r="X35" t="n">
-        <v>3150.95552873011</v>
+        <v>3150.955528730109</v>
       </c>
       <c r="Y35" t="n">
-        <v>2760.816196754298</v>
+        <v>2760.816196754297</v>
       </c>
     </row>
     <row r="36">
@@ -7007,7 +7007,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G36" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H36" t="n">
         <v>114.5683260468565</v>
@@ -7016,13 +7016,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J36" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K36" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L36" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M36" t="n">
         <v>1241.47698845434</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>500.2948715744233</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="C37" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="D37" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="E37" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="F37" t="n">
-        <v>331.3586886465164</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="G37" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H37" t="n">
         <v>95.56103444839442</v>
@@ -7098,7 +7098,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K37" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L37" t="n">
         <v>661.2306482927024</v>
@@ -7110,37 +7110,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O37" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P37" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q37" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R37" t="n">
-        <v>1866.513008862232</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="S37" t="n">
-        <v>1674.827124689058</v>
+        <v>1780.96276986786</v>
       </c>
       <c r="T37" t="n">
-        <v>1674.827124689058</v>
+        <v>1559.196154437386</v>
       </c>
       <c r="U37" t="n">
-        <v>1674.827124689058</v>
+        <v>1270.093287563029</v>
       </c>
       <c r="V37" t="n">
-        <v>1420.142636483171</v>
+        <v>1015.408799357142</v>
       </c>
       <c r="W37" t="n">
-        <v>1130.72546644621</v>
+        <v>725.9916293201816</v>
       </c>
       <c r="X37" t="n">
-        <v>902.7359155481931</v>
+        <v>498.0020784221642</v>
       </c>
       <c r="Y37" t="n">
-        <v>681.943336404663</v>
+        <v>277.2094992786341</v>
       </c>
     </row>
     <row r="38">
@@ -7174,28 +7174,28 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J38" t="n">
-        <v>284.4401654074198</v>
+        <v>451.8458144277728</v>
       </c>
       <c r="K38" t="n">
-        <v>750.1800661608916</v>
+        <v>1106.569146563072</v>
       </c>
       <c r="L38" t="n">
-        <v>1614.698881814246</v>
+        <v>1557.603359811481</v>
       </c>
       <c r="M38" t="n">
-        <v>2593.249184644075</v>
+        <v>2091.135264483405</v>
       </c>
       <c r="N38" t="n">
-        <v>3573.001456870722</v>
+        <v>2637.914081542187</v>
       </c>
       <c r="O38" t="n">
-        <v>4075.973927750058</v>
+        <v>3482.142110232732</v>
       </c>
       <c r="P38" t="n">
-        <v>4470.748294107237</v>
+        <v>4195.497197679678</v>
       </c>
       <c r="Q38" t="n">
-        <v>4719.034655862919</v>
+        <v>4653.975400188666</v>
       </c>
       <c r="R38" t="n">
         <v>4778.051722419721</v>
@@ -7244,7 +7244,7 @@
         <v>341.4333205763709</v>
       </c>
       <c r="G39" t="n">
-        <v>205.0702204089889</v>
+        <v>205.070220408989</v>
       </c>
       <c r="H39" t="n">
         <v>114.5683260468565</v>
@@ -7253,13 +7253,13 @@
         <v>95.56103444839442</v>
       </c>
       <c r="J39" t="n">
-        <v>189.2383039390118</v>
+        <v>189.2383039390117</v>
       </c>
       <c r="K39" t="n">
-        <v>427.5025029193589</v>
+        <v>427.5025029193588</v>
       </c>
       <c r="L39" t="n">
-        <v>794.2006632320242</v>
+        <v>794.200663232024</v>
       </c>
       <c r="M39" t="n">
         <v>1241.47698845434</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>704.2840989361212</v>
+        <v>432.2000540015823</v>
       </c>
       <c r="C40" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="D40" t="n">
-        <v>704.2840989361212</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="E40" t="n">
-        <v>556.371005353728</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="F40" t="n">
-        <v>409.4810578558177</v>
+        <v>263.2638710736754</v>
       </c>
       <c r="G40" t="n">
-        <v>241.7782212305366</v>
+        <v>95.56103444839442</v>
       </c>
       <c r="H40" t="n">
         <v>95.56103444839442</v>
@@ -7335,7 +7335,7 @@
         <v>140.68366689533</v>
       </c>
       <c r="K40" t="n">
-        <v>344.6708498442064</v>
+        <v>344.6708498442063</v>
       </c>
       <c r="L40" t="n">
         <v>661.2306482927024</v>
@@ -7347,37 +7347,37 @@
         <v>1346.796070598116</v>
       </c>
       <c r="O40" t="n">
-        <v>1646.12566951853</v>
+        <v>1646.125669518529</v>
       </c>
       <c r="P40" t="n">
         <v>1878.733169952189</v>
       </c>
       <c r="Q40" t="n">
-        <v>1956.343466104704</v>
+        <v>1956.343466104703</v>
       </c>
       <c r="R40" t="n">
-        <v>1956.343466104704</v>
+        <v>1866.513008862231</v>
       </c>
       <c r="S40" t="n">
-        <v>1764.65758193153</v>
+        <v>1674.827124689057</v>
       </c>
       <c r="T40" t="n">
-        <v>1542.890966501056</v>
+        <v>1453.060509258583</v>
       </c>
       <c r="U40" t="n">
-        <v>1253.788099626699</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="V40" t="n">
-        <v>999.1036114208126</v>
+        <v>1163.957642384227</v>
       </c>
       <c r="W40" t="n">
-        <v>709.6864413838521</v>
+        <v>874.5404723472661</v>
       </c>
       <c r="X40" t="n">
-        <v>704.2840989361212</v>
+        <v>652.9926331451124</v>
       </c>
       <c r="Y40" t="n">
-        <v>704.2840989361212</v>
+        <v>432.2000540015823</v>
       </c>
     </row>
     <row r="41">
@@ -7387,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1972.793246711599</v>
+        <v>2289.061662800277</v>
       </c>
       <c r="C41" t="n">
-        <v>1603.830729771187</v>
+        <v>1920.099145859866</v>
       </c>
       <c r="D41" t="n">
-        <v>1245.565031164437</v>
+        <v>1561.833447253115</v>
       </c>
       <c r="E41" t="n">
-        <v>859.7767785661922</v>
+        <v>1176.045194654871</v>
       </c>
       <c r="F41" t="n">
-        <v>842.1855215555904</v>
+        <v>765.0592898652633</v>
       </c>
       <c r="G41" t="n">
-        <v>427.1130714005869</v>
+        <v>385.1161726400555</v>
       </c>
       <c r="H41" t="n">
-        <v>129.5294710093542</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="I41" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J41" t="n">
-        <v>443.8173522282013</v>
+        <v>332.6230782222005</v>
       </c>
       <c r="K41" t="n">
-        <v>1046.401594395702</v>
+        <v>666.4424519120469</v>
       </c>
       <c r="L41" t="n">
-        <v>1497.435807644111</v>
+        <v>1117.476665160455</v>
       </c>
       <c r="M41" t="n">
-        <v>2030.967712316035</v>
+        <v>2096.026967990284</v>
       </c>
       <c r="N41" t="n">
-        <v>2577.746529374818</v>
+        <v>2642.805785049066</v>
       </c>
       <c r="O41" t="n">
-        <v>3080.719000254155</v>
+        <v>3145.778255928403</v>
       </c>
       <c r="P41" t="n">
-        <v>3794.0740877011</v>
+        <v>3859.133343375349</v>
       </c>
       <c r="Q41" t="n">
-        <v>4252.552290210088</v>
+        <v>4317.611545884337</v>
       </c>
       <c r="R41" t="n">
-        <v>4376.628612441144</v>
+        <v>4376.628612441139</v>
       </c>
       <c r="S41" t="n">
-        <v>4266.337943968239</v>
+        <v>4376.628612441139</v>
       </c>
       <c r="T41" t="n">
-        <v>4060.360196352461</v>
+        <v>4376.628612441139</v>
       </c>
       <c r="U41" t="n">
-        <v>3806.829719626297</v>
+        <v>4123.098135714976</v>
       </c>
       <c r="V41" t="n">
-        <v>3475.766832282726</v>
+        <v>3792.035248371405</v>
       </c>
       <c r="W41" t="n">
-        <v>3122.998177012612</v>
+        <v>3439.266593101291</v>
       </c>
       <c r="X41" t="n">
-        <v>2749.532418751532</v>
+        <v>3065.800834840211</v>
       </c>
       <c r="Y41" t="n">
-        <v>2359.39308677572</v>
+        <v>2675.661502864399</v>
       </c>
     </row>
     <row r="42">
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>962.5643102977482</v>
+        <v>962.564310297748</v>
       </c>
       <c r="C42" t="n">
-        <v>788.1112810166212</v>
+        <v>788.111281016621</v>
       </c>
       <c r="D42" t="n">
-        <v>639.1768713553699</v>
+        <v>639.1768713553697</v>
       </c>
       <c r="E42" t="n">
-        <v>479.9394163499144</v>
+        <v>479.9394163499143</v>
       </c>
       <c r="F42" t="n">
         <v>333.4048583767993</v>
@@ -7487,16 +7487,16 @@
         <v>106.5398638472849</v>
       </c>
       <c r="I42" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J42" t="n">
-        <v>181.2098417394402</v>
+        <v>181.2098417394401</v>
       </c>
       <c r="K42" t="n">
-        <v>419.4740407197874</v>
+        <v>419.4740407197871</v>
       </c>
       <c r="L42" t="n">
-        <v>786.1722010324527</v>
+        <v>786.1722010324524</v>
       </c>
       <c r="M42" t="n">
         <v>1233.448526254769</v>
@@ -7545,43 +7545,43 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>554.4984881714586</v>
+        <v>869.0912722946499</v>
       </c>
       <c r="C43" t="n">
-        <v>385.5623052435517</v>
+        <v>700.155089366743</v>
       </c>
       <c r="D43" t="n">
-        <v>235.445665831216</v>
+        <v>550.0384499544073</v>
       </c>
       <c r="E43" t="n">
-        <v>87.53257224882287</v>
+        <v>402.1253563720142</v>
       </c>
       <c r="F43" t="n">
-        <v>87.53257224882287</v>
+        <v>255.2354088741038</v>
       </c>
       <c r="G43" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="H43" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="I43" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J43" t="n">
-        <v>132.6552046957584</v>
+        <v>132.6552046957583</v>
       </c>
       <c r="K43" t="n">
-        <v>336.6423876446348</v>
+        <v>336.6423876446347</v>
       </c>
       <c r="L43" t="n">
-        <v>653.2021860931309</v>
+        <v>653.2021860931308</v>
       </c>
       <c r="M43" t="n">
-        <v>997.3592316926799</v>
+        <v>997.3592316926797</v>
       </c>
       <c r="N43" t="n">
-        <v>1338.767608398545</v>
+        <v>1338.767608398544</v>
       </c>
       <c r="O43" t="n">
         <v>1638.097207318958</v>
@@ -7596,25 +7596,25 @@
         <v>1948.315003905132</v>
       </c>
       <c r="S43" t="n">
-        <v>1948.315003905132</v>
+        <v>1756.629119731958</v>
       </c>
       <c r="T43" t="n">
-        <v>1728.716438123489</v>
+        <v>1534.862504301484</v>
       </c>
       <c r="U43" t="n">
-        <v>1439.613571249133</v>
+        <v>1534.862504301484</v>
       </c>
       <c r="V43" t="n">
-        <v>1184.929083043246</v>
+        <v>1499.521867166437</v>
       </c>
       <c r="W43" t="n">
-        <v>1184.929083043246</v>
+        <v>1499.521867166437</v>
       </c>
       <c r="X43" t="n">
-        <v>956.9395321452284</v>
+        <v>1271.53231626842</v>
       </c>
       <c r="Y43" t="n">
-        <v>736.1469530016983</v>
+        <v>1050.73973712489</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1972.793246711599</v>
+        <v>1997.225377550193</v>
       </c>
       <c r="C44" t="n">
-        <v>1603.830729771187</v>
+        <v>1997.225377550193</v>
       </c>
       <c r="D44" t="n">
-        <v>1253.171426345198</v>
+        <v>1638.959678943442</v>
       </c>
       <c r="E44" t="n">
         <v>1253.171426345198</v>
@@ -7642,58 +7642,58 @@
         <v>427.1130714005869</v>
       </c>
       <c r="H44" t="n">
-        <v>129.5294710093542</v>
+        <v>129.5294710093541</v>
       </c>
       <c r="I44" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J44" t="n">
-        <v>443.8173522282013</v>
+        <v>443.8173522282012</v>
       </c>
       <c r="K44" t="n">
-        <v>1098.540684363501</v>
+        <v>987.9901360353481</v>
       </c>
       <c r="L44" t="n">
-        <v>1549.57489761191</v>
+        <v>1439.024349283757</v>
       </c>
       <c r="M44" t="n">
-        <v>2083.106802283834</v>
+        <v>1972.556253955681</v>
       </c>
       <c r="N44" t="n">
-        <v>2629.885619342617</v>
+        <v>2519.335071014463</v>
       </c>
       <c r="O44" t="n">
-        <v>3132.858090221954</v>
+        <v>3399.299721343918</v>
       </c>
       <c r="P44" t="n">
-        <v>3794.0740877011</v>
+        <v>3794.074087701096</v>
       </c>
       <c r="Q44" t="n">
-        <v>4252.552290210088</v>
+        <v>4252.552290210084</v>
       </c>
       <c r="R44" t="n">
-        <v>4376.628612441144</v>
+        <v>4376.628612441139</v>
       </c>
       <c r="S44" t="n">
-        <v>4266.337943968239</v>
+        <v>4266.337943968234</v>
       </c>
       <c r="T44" t="n">
-        <v>4060.360196352461</v>
+        <v>4084.792327191055</v>
       </c>
       <c r="U44" t="n">
-        <v>3806.829719626297</v>
+        <v>3831.261850464891</v>
       </c>
       <c r="V44" t="n">
-        <v>3475.766832282726</v>
+        <v>3500.198963121321</v>
       </c>
       <c r="W44" t="n">
-        <v>3122.998177012612</v>
+        <v>3147.430307851206</v>
       </c>
       <c r="X44" t="n">
-        <v>2749.532418751532</v>
+        <v>2773.964549590126</v>
       </c>
       <c r="Y44" t="n">
-        <v>2359.39308677572</v>
+        <v>2383.825217614315</v>
       </c>
     </row>
     <row r="45">
@@ -7703,16 +7703,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>962.5643102977482</v>
+        <v>962.564310297748</v>
       </c>
       <c r="C45" t="n">
-        <v>788.1112810166212</v>
+        <v>788.111281016621</v>
       </c>
       <c r="D45" t="n">
-        <v>639.1768713553699</v>
+        <v>639.1768713553697</v>
       </c>
       <c r="E45" t="n">
-        <v>479.9394163499144</v>
+        <v>479.9394163499143</v>
       </c>
       <c r="F45" t="n">
         <v>333.4048583767993</v>
@@ -7724,19 +7724,19 @@
         <v>106.5398638472849</v>
       </c>
       <c r="I45" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J45" t="n">
-        <v>181.2098417394402</v>
+        <v>181.2098417394401</v>
       </c>
       <c r="K45" t="n">
-        <v>419.4740407197874</v>
+        <v>419.4740407197871</v>
       </c>
       <c r="L45" t="n">
-        <v>786.1722010324527</v>
+        <v>786.1722010324524</v>
       </c>
       <c r="M45" t="n">
-        <v>1233.448526254769</v>
+        <v>1233.448526254768</v>
       </c>
       <c r="N45" t="n">
         <v>1706.971569809223</v>
@@ -7782,43 +7782,43 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>532.4522527414621</v>
+        <v>665.3543124594362</v>
       </c>
       <c r="C46" t="n">
-        <v>532.4522527414621</v>
+        <v>665.3543124594362</v>
       </c>
       <c r="D46" t="n">
-        <v>382.3356133291263</v>
+        <v>550.0384499544073</v>
       </c>
       <c r="E46" t="n">
-        <v>234.4225197467332</v>
+        <v>402.1253563720142</v>
       </c>
       <c r="F46" t="n">
-        <v>87.53257224882287</v>
+        <v>255.2354088741038</v>
       </c>
       <c r="G46" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="H46" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="I46" t="n">
-        <v>87.53257224882287</v>
+        <v>87.53257224882279</v>
       </c>
       <c r="J46" t="n">
-        <v>132.6552046957584</v>
+        <v>132.6552046957583</v>
       </c>
       <c r="K46" t="n">
-        <v>336.6423876446348</v>
+        <v>336.6423876446347</v>
       </c>
       <c r="L46" t="n">
-        <v>653.2021860931309</v>
+        <v>653.2021860931308</v>
       </c>
       <c r="M46" t="n">
-        <v>997.3592316926799</v>
+        <v>997.3592316926797</v>
       </c>
       <c r="N46" t="n">
-        <v>1338.767608398545</v>
+        <v>1338.767608398544</v>
       </c>
       <c r="O46" t="n">
         <v>1638.097207318958</v>
@@ -7833,25 +7833,25 @@
         <v>1948.315003905132</v>
       </c>
       <c r="S46" t="n">
-        <v>1928.436818123967</v>
+        <v>1948.315003905132</v>
       </c>
       <c r="T46" t="n">
-        <v>1706.670202693493</v>
+        <v>1726.548388474658</v>
       </c>
       <c r="U46" t="n">
-        <v>1417.567335819136</v>
+        <v>1437.445521600301</v>
       </c>
       <c r="V46" t="n">
-        <v>1162.882847613249</v>
+        <v>1182.761033394414</v>
       </c>
       <c r="W46" t="n">
-        <v>1162.882847613249</v>
+        <v>893.3438633574535</v>
       </c>
       <c r="X46" t="n">
-        <v>934.8932967152319</v>
+        <v>665.3543124594362</v>
       </c>
       <c r="Y46" t="n">
-        <v>714.1007175717018</v>
+        <v>665.3543124594362</v>
       </c>
     </row>
   </sheetData>
@@ -8057,7 +8057,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
         <v>264.4652370125786</v>
@@ -8072,13 +8072,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O3" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783515</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>166.6588033951781</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8294,10 +8294,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K6" t="n">
-        <v>264.4652370125786</v>
+        <v>221.0467526719077</v>
       </c>
       <c r="L6" t="n">
         <v>370.8403453034592</v>
@@ -8312,7 +8312,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8452,7 +8452,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720733</v>
       </c>
       <c r="K8" t="n">
         <v>324.1454125711647</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.64146763747121</v>
+        <v>90.64146763747073</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8689,10 +8689,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K11" t="n">
-        <v>324.1454125711647</v>
+        <v>271.4796651289391</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8704,7 +8704,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>182.1472876028358</v>
+        <v>0</v>
       </c>
       <c r="P11" t="n">
         <v>321.7987081714826</v>
@@ -8713,7 +8713,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8929,13 +8929,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
-        <v>0</v>
+        <v>271.4796651289391</v>
       </c>
       <c r="L14" t="n">
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8944,13 +8944,13 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>209.4812596805766</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9175,13 +9175,13 @@
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>0</v>
+        <v>285.7011105564222</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9400,31 +9400,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>161.8544041422911</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>103.7862464855144</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9652,7 +9652,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>344.7025836476853</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>321.7987081714826</v>
@@ -9877,28 +9877,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K26" t="n">
-        <v>103.7862464855144</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q26" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R26" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10126,7 +10126,7 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>344.7025836476838</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
         <v>321.7987081714826</v>
@@ -10135,7 +10135,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>29.61882225792191</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10351,28 +10351,28 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L32" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M32" t="n">
-        <v>288.0478149561034</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>380.8001812627454</v>
+        <v>77.35795430877238</v>
       </c>
       <c r="P32" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10585,31 +10585,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>132.9990175570132</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
-        <v>170.1140909277306</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10822,31 +10822,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
-        <v>133.2530576400255</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>0</v>
+        <v>344.7025836476853</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11059,16 +11059,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>56.77916668116396</v>
       </c>
       <c r="K41" t="n">
-        <v>271.4796651289436</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11083,7 +11083,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711647</v>
+        <v>212.4781920376773</v>
       </c>
       <c r="L44" t="n">
         <v>0</v>
@@ -11311,10 +11311,10 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>269.1329607292611</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23278,7 +23278,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23311,10 +23311,10 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T11" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>76.35496937341932</v>
+        <v>238.6960097401185</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -23430,7 +23430,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>166.0258082590282</v>
+        <v>111.2344680580374</v>
       </c>
       <c r="H13" t="n">
         <v>144.7550149143208</v>
@@ -23466,10 +23466,10 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S13" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23500,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>138.4655293423184</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23512,7 +23512,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>138.4655293423139</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -23667,10 +23667,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>76.16130118245188</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>96.35242040983809</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>74.94028834285217</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -23892,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I19" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,28 +23937,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>187.9464241558536</v>
       </c>
       <c r="T19" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>91.82296800468978</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24126,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>24.30213688797426</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S22" t="n">
-        <v>16.14213605696617</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24192,10 +24192,10 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -24363,13 +24363,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.40576640459108</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
         <v>146.4339626465692</v>
@@ -24381,7 +24381,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I25" t="n">
         <v>96.35242040983812</v>
@@ -24411,10 +24411,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>88.93215267004734</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>189.7690253314419</v>
+        <v>92.48912964370447</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>75.63996914144134</v>
       </c>
       <c r="H28" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S28" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>81.33107165459955</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24837,10 +24837,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>16.14213605696625</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>148.6154730182124</v>
@@ -24855,10 +24855,10 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H31" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>102.4343166808784</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24903,7 +24903,7 @@
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25074,10 +25074,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
         <v>148.6154730182124</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H34" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I34" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>32.80528251369488</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25140,7 +25140,7 @@
         <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
         <v>0</v>
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25326,13 +25326,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>77.34114551720829</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>16.14213605696685</v>
       </c>
       <c r="T37" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25608,16 +25608,16 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>220.3613363657836</v>
+        <v>6.377294578905008</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -25639,16 +25639,16 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>389.4607013012156</v>
+        <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>34.77803960049783</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -25797,16 +25797,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I43" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S43" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>2.146369152342686</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>217.1504125601315</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,13 +25867,13 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>7.530331228953855</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25918,7 +25918,7 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>24.18780953021295</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -26022,13 +26022,13 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>34.45276913823373</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,13 +26037,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I46" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S46" t="n">
-        <v>170.0896214080879</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26085,13 +26085,13 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26141,7 +26141,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>982867.1326684281</v>
+        <v>982867.132668428</v>
       </c>
     </row>
     <row r="5">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>863601.9264367262</v>
+        <v>863601.9264367258</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>863601.9264367261</v>
+        <v>863601.9264367257</v>
       </c>
     </row>
     <row r="7">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>904819.9722524808</v>
+        <v>904819.9722524807</v>
       </c>
     </row>
     <row r="12">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>904819.9722524808</v>
+        <v>904819.9722524809</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>863601.9264367264</v>
+        <v>863601.926436726</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>863601.9264367262</v>
+        <v>863601.9264367259</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533677.1504117841</v>
+        <v>533677.1504117843</v>
       </c>
       <c r="C2" t="n">
         <v>533677.1504117843</v>
       </c>
       <c r="D2" t="n">
-        <v>533677.1504117843</v>
+        <v>533677.1504117844</v>
       </c>
       <c r="E2" t="n">
-        <v>496055.6262677533</v>
+        <v>496055.6262677529</v>
       </c>
       <c r="F2" t="n">
-        <v>496055.6262677531</v>
+        <v>496055.626267753</v>
       </c>
       <c r="G2" t="n">
+        <v>516206.3229530784</v>
+      </c>
+      <c r="H2" t="n">
+        <v>516206.322953078</v>
+      </c>
+      <c r="I2" t="n">
+        <v>516206.3229530783</v>
+      </c>
+      <c r="J2" t="n">
         <v>516206.3229530781</v>
-      </c>
-      <c r="H2" t="n">
-        <v>516206.3229530782</v>
-      </c>
-      <c r="I2" t="n">
-        <v>516206.3229530781</v>
-      </c>
-      <c r="J2" t="n">
-        <v>516206.3229530783</v>
       </c>
       <c r="K2" t="n">
         <v>516206.322953078</v>
       </c>
       <c r="L2" t="n">
-        <v>516206.3229530782</v>
+        <v>516206.322953078</v>
       </c>
       <c r="M2" t="n">
         <v>516206.3229530782</v>
       </c>
       <c r="N2" t="n">
-        <v>516206.3229530783</v>
+        <v>516206.3229530781</v>
       </c>
       <c r="O2" t="n">
-        <v>496055.6262677532</v>
+        <v>496055.626267753</v>
       </c>
       <c r="P2" t="n">
-        <v>496055.6262677532</v>
+        <v>496055.6262677528</v>
       </c>
     </row>
     <row r="3">
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>589967.8792145444</v>
+        <v>589967.8792145445</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>697413.3866606108</v>
+        <v>697413.3866606103</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>27506.01327461961</v>
+        <v>27506.01327461992</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925931</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>104633.2536641694</v>
+        <v>104633.2536641691</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>218780.324998335</v>
+      </c>
+      <c r="C4" t="n">
         <v>218780.3249983351</v>
       </c>
-      <c r="C4" t="n">
+      <c r="D4" t="n">
         <v>218780.324998335</v>
       </c>
-      <c r="D4" t="n">
-        <v>218780.3249983351</v>
-      </c>
       <c r="E4" t="n">
-        <v>24868.64244224537</v>
+        <v>24868.64244224528</v>
       </c>
       <c r="F4" t="n">
-        <v>24868.64244224536</v>
+        <v>24868.64244224528</v>
       </c>
       <c r="G4" t="n">
-        <v>32032.95503079769</v>
+        <v>32032.95503079771</v>
       </c>
       <c r="H4" t="n">
-        <v>32032.95503079768</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="I4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="J4" t="n">
+        <v>32032.95503079771</v>
+      </c>
+      <c r="K4" t="n">
+        <v>32032.9550307977</v>
+      </c>
+      <c r="L4" t="n">
         <v>32032.95503079772</v>
-      </c>
-      <c r="J4" t="n">
-        <v>32032.95503079769</v>
-      </c>
-      <c r="K4" t="n">
-        <v>32032.95503079769</v>
-      </c>
-      <c r="L4" t="n">
-        <v>32032.95503079769</v>
       </c>
       <c r="M4" t="n">
         <v>32032.9550307977</v>
       </c>
       <c r="N4" t="n">
-        <v>32032.9550307977</v>
+        <v>32032.95503079772</v>
       </c>
       <c r="O4" t="n">
-        <v>24868.64244224536</v>
+        <v>24868.64244224529</v>
       </c>
       <c r="P4" t="n">
-        <v>24868.64244224535</v>
+        <v>24868.64244224529</v>
       </c>
     </row>
     <row r="5">
@@ -26478,40 +26478,40 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>90281.88698203929</v>
+        <v>90281.88698203921</v>
       </c>
       <c r="F5" t="n">
-        <v>90281.88698203929</v>
+        <v>90281.88698203921</v>
       </c>
       <c r="G5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="H5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="I5" t="n">
         <v>96383.51825371364</v>
       </c>
       <c r="J5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="K5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="L5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="M5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="N5" t="n">
-        <v>96383.51825371366</v>
+        <v>96383.51825371364</v>
       </c>
       <c r="O5" t="n">
-        <v>90281.88698203929</v>
+        <v>90281.8869820392</v>
       </c>
       <c r="P5" t="n">
-        <v>90281.88698203929</v>
+        <v>90281.8869820392</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-357930.1318645049</v>
+        <v>-357930.1318645048</v>
       </c>
       <c r="C6" t="n">
-        <v>232037.7473500398</v>
+        <v>232037.7473500397</v>
       </c>
       <c r="D6" t="n">
-        <v>232037.7473500397</v>
+        <v>232037.7473500399</v>
       </c>
       <c r="E6" t="n">
-        <v>-317955.2715149896</v>
+        <v>-316652.9879869266</v>
       </c>
       <c r="F6" t="n">
-        <v>379458.1151456211</v>
+        <v>380760.3986736838</v>
       </c>
       <c r="G6" t="n">
-        <v>359611.8814916892</v>
+        <v>360216.6409037213</v>
       </c>
       <c r="H6" t="n">
-        <v>387117.8947663089</v>
+        <v>387722.6541783409</v>
       </c>
       <c r="I6" t="n">
-        <v>387117.894766309</v>
+        <v>387722.6541783412</v>
       </c>
       <c r="J6" t="n">
-        <v>210694.6755737159</v>
+        <v>211299.434985748</v>
       </c>
       <c r="K6" t="n">
-        <v>387117.8947663087</v>
+        <v>387722.6541783409</v>
       </c>
       <c r="L6" t="n">
-        <v>387117.8947663089</v>
+        <v>387722.6541783409</v>
       </c>
       <c r="M6" t="n">
-        <v>282484.6411021394</v>
+        <v>283089.4005141719</v>
       </c>
       <c r="N6" t="n">
-        <v>387117.894766309</v>
+        <v>387722.654178341</v>
       </c>
       <c r="O6" t="n">
-        <v>379458.1151456211</v>
+        <v>380760.3986736838</v>
       </c>
       <c r="P6" t="n">
-        <v>379458.1151456212</v>
+        <v>380760.3986736836</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>377.7436642170867</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26798,10 +26798,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
-        <v>1094.157153110286</v>
+        <v>1094.157153110285</v>
       </c>
       <c r="F4" t="n">
-        <v>1094.157153110286</v>
+        <v>1094.157153110285</v>
       </c>
       <c r="G4" t="n">
         <v>1194.51293060493</v>
@@ -26828,10 +26828,10 @@
         <v>1194.51293060493</v>
       </c>
       <c r="O4" t="n">
-        <v>1094.157153110286</v>
+        <v>1094.157153110285</v>
       </c>
       <c r="P4" t="n">
-        <v>1094.157153110286</v>
+        <v>1094.157153110285</v>
       </c>
     </row>
   </sheetData>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>712.0330363762116</v>
+        <v>712.0330363762114</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,10 +26980,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27020,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>419.8698803557303</v>
+        <v>419.8698803557292</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>100.3557774946444</v>
+        <v>100.3557774946455</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557303</v>
+        <v>419.8698803557292</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>419.8698803557303</v>
+        <v>419.8698803557292</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>100.3557774946444</v>
+        <v>100.3557774946455</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27381,7 +27381,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>124.313593350064</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27432,16 +27432,16 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>219.585608408947</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -27539,7 +27539,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>136.7057146380966</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27560,7 +27560,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J4" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>116.1240855196268</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
         <v>212.1455389500189</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>66.26435333854573</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>354.2872775002871</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I5" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,7 +27666,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>216.4483203576578</v>
@@ -27675,7 +27675,7 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27788,7 +27788,7 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>116.1240855196265</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>212.1455389500189</v>
+        <v>160.9598222105945</v>
       </c>
       <c r="T7" t="n">
         <v>225.0351054580843</v>
@@ -27858,10 +27858,10 @@
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>6.215881202473327</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>42.48905394114831</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27909,7 +27909,7 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -27918,7 +27918,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>136.7057146380966</v>
       </c>
       <c r="H10" t="n">
         <v>156.1708888417951</v>
@@ -28034,7 +28034,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,10 +28055,10 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.65885272800598</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
@@ -31047,19 +31047,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I2" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J2" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K2" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L2" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M2" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N2" t="n">
         <v>270.9617944338304</v>
@@ -31074,13 +31074,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R2" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S2" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T2" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U2" t="n">
         <v>0.1214853995472036</v>
@@ -31120,16 +31120,16 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H3" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I3" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J3" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
         <v>131.2017781649102</v>
@@ -31147,22 +31147,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P3" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q3" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R3" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S3" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T3" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U3" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H4" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I4" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J4" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K4" t="n">
         <v>79.14039391302239</v>
@@ -31223,16 +31223,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O4" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P4" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q4" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R4" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S4" t="n">
         <v>11.87105908695336</v>
@@ -31521,19 +31521,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31548,13 +31548,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31594,16 +31594,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
@@ -31621,22 +31621,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,16 +31673,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31697,16 +31697,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31858,7 +31858,7 @@
         <v>557.708647897025</v>
       </c>
       <c r="P12" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002929</v>
       </c>
       <c r="Q12" t="n">
         <v>299.2156706987487</v>
@@ -32098,7 +32098,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32226,43 +32226,43 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I17" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J17" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N17" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
@@ -32311,40 +32311,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K18" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O18" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J19" t="n">
         <v>138.937596729739</v>
@@ -32399,16 +32399,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M19" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P19" t="n">
         <v>237.6785118802169</v>
@@ -32417,16 +32417,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,43 +32463,43 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H20" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I20" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J20" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K20" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L20" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M20" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N20" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O20" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P20" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q20" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R20" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S20" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T20" t="n">
         <v>19.1778794245112</v>
@@ -32548,40 +32548,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I21" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L21" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N21" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P21" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q21" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R21" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S21" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T21" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U21" t="n">
         <v>0.1542136840462215</v>
@@ -32621,13 +32621,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H22" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I22" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J22" t="n">
         <v>138.937596729739</v>
@@ -32636,16 +32636,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L22" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M22" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N22" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O22" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P22" t="n">
         <v>237.6785118802169</v>
@@ -32654,16 +32654,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R22" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S22" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T22" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32803,7 +32803,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P24" t="n">
         <v>447.6103584002926</v>
@@ -32937,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33022,40 +33022,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33095,13 +33095,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33110,16 +33110,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33128,16 +33128,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33259,40 +33259,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33332,13 +33332,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33347,16 +33347,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33365,16 +33365,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33496,40 +33496,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33569,13 +33569,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33584,16 +33584,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33602,16 +33602,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33733,40 +33733,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33806,13 +33806,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33821,16 +33821,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33839,16 +33839,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33970,40 +33970,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34043,13 +34043,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34058,16 +34058,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34076,16 +34076,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34207,40 +34207,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34280,13 +34280,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34295,16 +34295,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34313,16 +34313,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34444,40 +34444,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34517,13 +34517,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34532,16 +34532,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34550,16 +34550,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,19 +34698,19 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K2" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L2" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M2" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N2" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O2" t="n">
         <v>406.5635087530452</v>
@@ -34777,7 +34777,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
         <v>257.8255762031298</v>
@@ -34789,16 +34789,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N3" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O3" t="n">
-        <v>444.5817404245898</v>
+        <v>325.1459203262118</v>
       </c>
       <c r="P3" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q3" t="n">
-        <v>130.3926104730631</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35014,10 +35014,10 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770692</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031298</v>
+        <v>214.4070918624589</v>
       </c>
       <c r="L6" t="n">
         <v>408.7029475713857</v>
@@ -35032,7 +35032,7 @@
         <v>444.5817404245898</v>
       </c>
       <c r="P6" t="n">
-        <v>220.2054057751866</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35172,19 +35172,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181306</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35251,7 +35251,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
@@ -35263,16 +35263,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>54.37527471535621</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,10 +35409,10 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K11" t="n">
-        <v>661.3366991265652</v>
+        <v>608.6709516843396</v>
       </c>
       <c r="L11" t="n">
         <v>455.5901143923322</v>
@@ -35424,7 +35424,7 @@
         <v>552.3018354129115</v>
       </c>
       <c r="O11" t="n">
-        <v>690.2002884910549</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P11" t="n">
         <v>720.5606943908545</v>
@@ -35433,7 +35433,7 @@
         <v>463.1092954636242</v>
       </c>
       <c r="R11" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35506,7 +35506,7 @@
         <v>415.1124034525806</v>
       </c>
       <c r="P12" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q12" t="n">
         <v>159.2338966127272</v>
@@ -35649,13 +35649,13 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554005</v>
+        <v>608.6709516843396</v>
       </c>
       <c r="L14" t="n">
         <v>455.5901143923322</v>
       </c>
       <c r="M14" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N14" t="n">
         <v>552.3018354129115</v>
@@ -35664,13 +35664,13 @@
         <v>508.0530008882191</v>
       </c>
       <c r="P14" t="n">
-        <v>608.2432458999484</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q14" t="n">
         <v>463.1092954636242</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35746,7 +35746,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35886,25 +35886,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N17" t="n">
-        <v>552.3018354129115</v>
+        <v>838.0029459693335</v>
       </c>
       <c r="O17" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P17" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R17" t="n">
         <v>125.3296184152072</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K18" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M18" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P18" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,10 +36041,10 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L19" t="n">
         <v>319.7573721701981</v>
@@ -36056,13 +36056,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P19" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>352.6414051110036</v>
       </c>
       <c r="K20" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L20" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M20" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N20" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P20" t="n">
-        <v>502.5482327048862</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36199,28 +36199,28 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L21" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N21" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q21" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,10 +36278,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
         <v>319.7573721701981</v>
@@ -36293,13 +36293,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36357,7 +36357,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>359.8836161407863</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K23" t="n">
         <v>661.3366991265651</v>
@@ -36372,7 +36372,7 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>852.7555845359043</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>720.5606943908542</v>
@@ -36451,7 +36451,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
@@ -36597,28 +36597,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K26" t="n">
-        <v>440.9775330409149</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R26" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36673,28 +36673,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36752,10 +36752,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K28" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L28" t="n">
         <v>319.7573721701981</v>
@@ -36767,13 +36767,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O28" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P28" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q28" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36834,28 +36834,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K29" t="n">
-        <v>661.3366991265652</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>852.7555845359029</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>89.23202080014663</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,10 +36989,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K31" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L31" t="n">
         <v>319.7573721701981</v>
@@ -37004,13 +37004,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O31" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P31" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q31" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37071,28 +37071,28 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M32" t="n">
-        <v>826.9689307863301</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>888.8531821509645</v>
+        <v>585.4109551969914</v>
       </c>
       <c r="P32" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37147,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,10 +37226,10 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K34" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L34" t="n">
         <v>319.7573721701981</v>
@@ -37241,13 +37241,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O34" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P34" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q34" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37305,31 +37305,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>323.7860185257257</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
-        <v>625.7042053200628</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>888.8531821509645</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37384,28 +37384,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37463,10 +37463,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37478,13 +37478,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K38" t="n">
-        <v>470.444344195426</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
-        <v>873.2513289427826</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>988.4346493230593</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>989.6487598248956</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>852.7555845359043</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37621,28 +37621,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37700,10 +37700,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37715,13 +37715,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37779,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>359.8836161407863</v>
+        <v>247.5661676498765</v>
       </c>
       <c r="K41" t="n">
-        <v>608.6709516843441</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908545</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q41" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37858,28 +37858,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,10 +37937,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37952,13 +37952,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38019,25 +38019,25 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K44" t="n">
-        <v>661.3366991265652</v>
+        <v>549.6694785930777</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>667.894946948633</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636242</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38095,28 +38095,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38174,10 +38174,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38189,13 +38189,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
